--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.903798687732</v>
+        <v>126.7341283333333</v>
       </c>
       <c r="H2">
-        <v>110.903798687732</v>
+        <v>380.202385</v>
       </c>
       <c r="I2">
-        <v>0.3579876965433187</v>
+        <v>0.3866927553064318</v>
       </c>
       <c r="J2">
-        <v>0.3579876965433187</v>
+        <v>0.3866927553064317</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.603768750204103</v>
+        <v>1.257910333333333</v>
       </c>
       <c r="N2">
-        <v>0.603768750204103</v>
+        <v>3.773731</v>
       </c>
       <c r="O2">
-        <v>0.002553759594562207</v>
+        <v>0.005038171381153627</v>
       </c>
       <c r="P2">
-        <v>0.002553759594562207</v>
+        <v>0.005038171381153626</v>
       </c>
       <c r="Q2">
-        <v>66.9602479265794</v>
+        <v>159.4201696164928</v>
       </c>
       <c r="R2">
-        <v>66.9602479265794</v>
+        <v>1434.781526548435</v>
       </c>
       <c r="S2">
-        <v>0.0009142145147827238</v>
+        <v>0.001948224373084307</v>
       </c>
       <c r="T2">
-        <v>0.0009142145147827238</v>
+        <v>0.001948224373084306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.903798687732</v>
+        <v>126.7341283333333</v>
       </c>
       <c r="H3">
-        <v>110.903798687732</v>
+        <v>380.202385</v>
       </c>
       <c r="I3">
-        <v>0.3579876965433187</v>
+        <v>0.3866927553064318</v>
       </c>
       <c r="J3">
-        <v>0.3579876965433187</v>
+        <v>0.3866927553064317</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>81.95345252724189</v>
+        <v>90.22063800000001</v>
       </c>
       <c r="N3">
-        <v>81.95345252724189</v>
+        <v>270.661914</v>
       </c>
       <c r="O3">
-        <v>0.3466383704492695</v>
+        <v>0.3613509042067556</v>
       </c>
       <c r="P3">
-        <v>0.3466383704492695</v>
+        <v>0.3613509042067556</v>
       </c>
       <c r="Q3">
-        <v>9088.949200845836</v>
+        <v>11434.03391460721</v>
       </c>
       <c r="R3">
-        <v>9088.949200845836</v>
+        <v>102906.3052314649</v>
       </c>
       <c r="S3">
-        <v>0.1240922717706636</v>
+        <v>0.1397317767801808</v>
       </c>
       <c r="T3">
-        <v>0.1240922717706636</v>
+        <v>0.1397317767801808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.903798687732</v>
+        <v>126.7341283333333</v>
       </c>
       <c r="H4">
-        <v>110.903798687732</v>
+        <v>380.202385</v>
       </c>
       <c r="I4">
-        <v>0.3579876965433187</v>
+        <v>0.3866927553064318</v>
       </c>
       <c r="J4">
-        <v>0.3579876965433187</v>
+        <v>0.3866927553064317</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>106.980324334293</v>
+        <v>109.26873</v>
       </c>
       <c r="N4">
-        <v>106.980324334293</v>
+        <v>327.80619</v>
       </c>
       <c r="O4">
-        <v>0.4524944850254705</v>
+        <v>0.437642154415089</v>
       </c>
       <c r="P4">
-        <v>0.4524944850254705</v>
+        <v>0.437642154415089</v>
       </c>
       <c r="Q4">
-        <v>11864.52435351871</v>
+        <v>13848.07725064035</v>
       </c>
       <c r="R4">
-        <v>11864.52435351871</v>
+        <v>124632.6952557632</v>
       </c>
       <c r="S4">
-        <v>0.1619874583928234</v>
+        <v>0.1692330505290136</v>
       </c>
       <c r="T4">
-        <v>0.1619874583928234</v>
+        <v>0.1692330505290136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,57 +720,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.903798687732</v>
+        <v>126.7341283333333</v>
       </c>
       <c r="H5">
-        <v>110.903798687732</v>
+        <v>380.202385</v>
       </c>
       <c r="I5">
-        <v>0.3579876965433187</v>
+        <v>0.3866927553064318</v>
       </c>
       <c r="J5">
-        <v>0.3579876965433187</v>
+        <v>0.3866927553064317</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.8859421314789</v>
+        <v>48.73834733333334</v>
       </c>
       <c r="N5">
-        <v>46.8859421314789</v>
+        <v>146.215042</v>
       </c>
       <c r="O5">
-        <v>0.1983133849306979</v>
+        <v>0.1952063992103771</v>
       </c>
       <c r="P5">
-        <v>0.1983133849306979</v>
+        <v>0.1952063992103771</v>
       </c>
       <c r="Q5">
-        <v>5199.829087434188</v>
+        <v>6176.811965697241</v>
       </c>
       <c r="R5">
-        <v>5199.829087434188</v>
+        <v>55591.30769127517</v>
       </c>
       <c r="S5">
-        <v>0.07099375186504901</v>
+        <v>0.07548490036410799</v>
       </c>
       <c r="T5">
-        <v>0.07099375186504901</v>
+        <v>0.07548490036410797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>185.562104533213</v>
+        <v>126.7341283333333</v>
       </c>
       <c r="H6">
-        <v>185.562104533213</v>
+        <v>380.202385</v>
       </c>
       <c r="I6">
-        <v>0.5989781337843723</v>
+        <v>0.3866927553064318</v>
       </c>
       <c r="J6">
-        <v>0.5989781337843723</v>
+        <v>0.3866927553064317</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.603768750204103</v>
+        <v>0.1903456666666667</v>
       </c>
       <c r="N6">
-        <v>0.603768750204103</v>
+        <v>0.571037</v>
       </c>
       <c r="O6">
-        <v>0.002553759594562207</v>
+        <v>0.0007623707866246491</v>
       </c>
       <c r="P6">
-        <v>0.002553759594562207</v>
+        <v>0.0007623707866246489</v>
       </c>
       <c r="Q6">
-        <v>112.0365999392611</v>
+        <v>24.12329214702722</v>
       </c>
       <c r="R6">
-        <v>112.0365999392611</v>
+        <v>217.109629323245</v>
       </c>
       <c r="S6">
-        <v>0.001529646156084806</v>
+        <v>0.0002948032600450173</v>
       </c>
       <c r="T6">
-        <v>0.001529646156084806</v>
+        <v>0.0002948032600450173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>185.562104533213</v>
+        <v>186.7837523333334</v>
       </c>
       <c r="H7">
-        <v>185.562104533213</v>
+        <v>560.351257</v>
       </c>
       <c r="I7">
-        <v>0.5989781337843723</v>
+        <v>0.569916918087593</v>
       </c>
       <c r="J7">
-        <v>0.5989781337843723</v>
+        <v>0.5699169180875929</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.95345252724189</v>
+        <v>1.257910333333333</v>
       </c>
       <c r="N7">
-        <v>81.95345252724189</v>
+        <v>3.773731</v>
       </c>
       <c r="O7">
-        <v>0.3466383704492695</v>
+        <v>0.005038171381153627</v>
       </c>
       <c r="P7">
-        <v>0.3466383704492695</v>
+        <v>0.005038171381153626</v>
       </c>
       <c r="Q7">
-        <v>15207.45512471777</v>
+        <v>234.9572121588742</v>
       </c>
       <c r="R7">
-        <v>15207.45512471777</v>
+        <v>2114.614909429867</v>
       </c>
       <c r="S7">
-        <v>0.2076288042297594</v>
+        <v>0.002871339106344187</v>
       </c>
       <c r="T7">
-        <v>0.2076288042297594</v>
+        <v>0.002871339106344186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>185.562104533213</v>
+        <v>186.7837523333334</v>
       </c>
       <c r="H8">
-        <v>185.562104533213</v>
+        <v>560.351257</v>
       </c>
       <c r="I8">
-        <v>0.5989781337843723</v>
+        <v>0.569916918087593</v>
       </c>
       <c r="J8">
-        <v>0.5989781337843723</v>
+        <v>0.5699169180875929</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>106.980324334293</v>
+        <v>90.22063800000001</v>
       </c>
       <c r="N8">
-        <v>106.980324334293</v>
+        <v>270.661914</v>
       </c>
       <c r="O8">
-        <v>0.4524944850254705</v>
+        <v>0.3613509042067556</v>
       </c>
       <c r="P8">
-        <v>0.4524944850254705</v>
+        <v>0.3613509042067556</v>
       </c>
       <c r="Q8">
-        <v>19851.49412711711</v>
+        <v>16851.74930354733</v>
       </c>
       <c r="R8">
-        <v>19851.49412711711</v>
+        <v>151665.7437319259</v>
       </c>
       <c r="S8">
-        <v>0.2710343021882769</v>
+        <v>0.2059399936736792</v>
       </c>
       <c r="T8">
-        <v>0.2710343021882769</v>
+        <v>0.2059399936736792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>185.562104533213</v>
+        <v>186.7837523333334</v>
       </c>
       <c r="H9">
-        <v>185.562104533213</v>
+        <v>560.351257</v>
       </c>
       <c r="I9">
-        <v>0.5989781337843723</v>
+        <v>0.569916918087593</v>
       </c>
       <c r="J9">
-        <v>0.5989781337843723</v>
+        <v>0.5699169180875929</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.8859421314789</v>
+        <v>109.26873</v>
       </c>
       <c r="N9">
-        <v>46.8859421314789</v>
+        <v>327.80619</v>
       </c>
       <c r="O9">
-        <v>0.1983133849306979</v>
+        <v>0.437642154415089</v>
       </c>
       <c r="P9">
-        <v>0.1983133849306979</v>
+        <v>0.437642154415089</v>
       </c>
       <c r="Q9">
-        <v>8700.254094939663</v>
+        <v>20409.62340209787</v>
       </c>
       <c r="R9">
-        <v>8700.254094939663</v>
+        <v>183686.6106188809</v>
       </c>
       <c r="S9">
-        <v>0.1187853812102513</v>
+        <v>0.249419667869462</v>
       </c>
       <c r="T9">
-        <v>0.1187853812102513</v>
+        <v>0.249419667869462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.3318908334436</v>
+        <v>186.7837523333334</v>
       </c>
       <c r="H10">
-        <v>13.3318908334436</v>
+        <v>560.351257</v>
       </c>
       <c r="I10">
-        <v>0.043034169672309</v>
+        <v>0.569916918087593</v>
       </c>
       <c r="J10">
-        <v>0.043034169672309</v>
+        <v>0.5699169180875929</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.603768750204103</v>
+        <v>48.73834733333334</v>
       </c>
       <c r="N10">
-        <v>0.603768750204103</v>
+        <v>146.215042</v>
       </c>
       <c r="O10">
-        <v>0.002553759594562207</v>
+        <v>0.1952063992103771</v>
       </c>
       <c r="P10">
-        <v>0.002553759594562207</v>
+        <v>0.1952063992103771</v>
       </c>
       <c r="Q10">
-        <v>8.04937906636578</v>
+        <v>9103.531397445313</v>
       </c>
       <c r="R10">
-        <v>8.04937906636578</v>
+        <v>81931.78257700781</v>
       </c>
       <c r="S10">
-        <v>0.0001098989236946771</v>
+        <v>0.1112514294289545</v>
       </c>
       <c r="T10">
-        <v>0.0001098989236946771</v>
+        <v>0.1112514294289544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.3318908334436</v>
+        <v>186.7837523333334</v>
       </c>
       <c r="H11">
-        <v>13.3318908334436</v>
+        <v>560.351257</v>
       </c>
       <c r="I11">
-        <v>0.043034169672309</v>
+        <v>0.569916918087593</v>
       </c>
       <c r="J11">
-        <v>0.043034169672309</v>
+        <v>0.5699169180875929</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>81.95345252724189</v>
+        <v>0.1903456666666667</v>
       </c>
       <c r="N11">
-        <v>81.95345252724189</v>
+        <v>0.571037</v>
       </c>
       <c r="O11">
-        <v>0.3466383704492695</v>
+        <v>0.0007623707866246491</v>
       </c>
       <c r="P11">
-        <v>0.3466383704492695</v>
+        <v>0.0007623707866246489</v>
       </c>
       <c r="Q11">
-        <v>1092.594482516991</v>
+        <v>35.55347786038989</v>
       </c>
       <c r="R11">
-        <v>1092.594482516991</v>
+        <v>319.9813007435091</v>
       </c>
       <c r="S11">
-        <v>0.01491729444884657</v>
+        <v>0.000434488009153134</v>
       </c>
       <c r="T11">
-        <v>0.01491729444884657</v>
+        <v>0.0004344880091531338</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.3318908334436</v>
+        <v>14.22068333333333</v>
       </c>
       <c r="H12">
-        <v>13.3318908334436</v>
+        <v>42.66205</v>
       </c>
       <c r="I12">
-        <v>0.043034169672309</v>
+        <v>0.04339032660597528</v>
       </c>
       <c r="J12">
-        <v>0.043034169672309</v>
+        <v>0.04339032660597528</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>106.980324334293</v>
+        <v>1.257910333333333</v>
       </c>
       <c r="N12">
-        <v>106.980324334293</v>
+        <v>3.773731</v>
       </c>
       <c r="O12">
-        <v>0.4524944850254705</v>
+        <v>0.005038171381153627</v>
       </c>
       <c r="P12">
-        <v>0.4524944850254705</v>
+        <v>0.005038171381153626</v>
       </c>
       <c r="Q12">
-        <v>1426.250005351184</v>
+        <v>17.88834451206111</v>
       </c>
       <c r="R12">
-        <v>1426.250005351184</v>
+        <v>160.99510060855</v>
       </c>
       <c r="S12">
-        <v>0.01947272444437018</v>
+        <v>0.0002186079017251335</v>
       </c>
       <c r="T12">
-        <v>0.01947272444437018</v>
+        <v>0.0002186079017251334</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.22068333333333</v>
+      </c>
+      <c r="H13">
+        <v>42.66205</v>
+      </c>
+      <c r="I13">
+        <v>0.04339032660597528</v>
+      </c>
+      <c r="J13">
+        <v>0.04339032660597528</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>90.22063800000001</v>
+      </c>
+      <c r="N13">
+        <v>270.661914</v>
+      </c>
+      <c r="O13">
+        <v>0.3613509042067556</v>
+      </c>
+      <c r="P13">
+        <v>0.3613509042067556</v>
+      </c>
+      <c r="Q13">
+        <v>1282.9991231293</v>
+      </c>
+      <c r="R13">
+        <v>11546.9921081637</v>
+      </c>
+      <c r="S13">
+        <v>0.01567913375289562</v>
+      </c>
+      <c r="T13">
+        <v>0.01567913375289561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>13.3318908334436</v>
-      </c>
-      <c r="H13">
-        <v>13.3318908334436</v>
-      </c>
-      <c r="I13">
-        <v>0.043034169672309</v>
-      </c>
-      <c r="J13">
-        <v>0.043034169672309</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>46.8859421314789</v>
-      </c>
-      <c r="N13">
-        <v>46.8859421314789</v>
-      </c>
-      <c r="O13">
-        <v>0.1983133849306979</v>
-      </c>
-      <c r="P13">
-        <v>0.1983133849306979</v>
-      </c>
-      <c r="Q13">
-        <v>625.0782621200306</v>
-      </c>
-      <c r="R13">
-        <v>625.0782621200306</v>
-      </c>
-      <c r="S13">
-        <v>0.008534251855397579</v>
-      </c>
-      <c r="T13">
-        <v>0.008534251855397579</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>14.22068333333333</v>
+      </c>
+      <c r="H14">
+        <v>42.66205</v>
+      </c>
+      <c r="I14">
+        <v>0.04339032660597528</v>
+      </c>
+      <c r="J14">
+        <v>0.04339032660597528</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>109.26873</v>
+      </c>
+      <c r="N14">
+        <v>327.80619</v>
+      </c>
+      <c r="O14">
+        <v>0.437642154415089</v>
+      </c>
+      <c r="P14">
+        <v>0.437642154415089</v>
+      </c>
+      <c r="Q14">
+        <v>1553.8760075655</v>
+      </c>
+      <c r="R14">
+        <v>13984.8840680895</v>
+      </c>
+      <c r="S14">
+        <v>0.01898943601661338</v>
+      </c>
+      <c r="T14">
+        <v>0.01898943601661338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14.22068333333333</v>
+      </c>
+      <c r="H15">
+        <v>42.66205</v>
+      </c>
+      <c r="I15">
+        <v>0.04339032660597528</v>
+      </c>
+      <c r="J15">
+        <v>0.04339032660597528</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>48.73834733333334</v>
+      </c>
+      <c r="N15">
+        <v>146.215042</v>
+      </c>
+      <c r="O15">
+        <v>0.1952063992103771</v>
+      </c>
+      <c r="P15">
+        <v>0.1952063992103771</v>
+      </c>
+      <c r="Q15">
+        <v>693.0926036173445</v>
+      </c>
+      <c r="R15">
+        <v>6237.833432556101</v>
+      </c>
+      <c r="S15">
+        <v>0.008470069417314659</v>
+      </c>
+      <c r="T15">
+        <v>0.008470069417314655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14.22068333333333</v>
+      </c>
+      <c r="H16">
+        <v>42.66205</v>
+      </c>
+      <c r="I16">
+        <v>0.04339032660597528</v>
+      </c>
+      <c r="J16">
+        <v>0.04339032660597528</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1903456666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.571037</v>
+      </c>
+      <c r="O16">
+        <v>0.0007623707866246491</v>
+      </c>
+      <c r="P16">
+        <v>0.0007623707866246489</v>
+      </c>
+      <c r="Q16">
+        <v>2.706845449538889</v>
+      </c>
+      <c r="R16">
+        <v>24.36160904585</v>
+      </c>
+      <c r="S16">
+        <v>3.307951742649781E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.307951742649781E-05</v>
       </c>
     </row>
   </sheetData>
